--- a/data/income_statement/3digits/total/332_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/332_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>332-Installation of industrial machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>332-Installation of industrial machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>317909.88896</v>
@@ -956,37 +862,42 @@
         <v>397037.93839</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>625568.4223599999</v>
+        <v>625568.42236</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>875394.5471699999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1542357.70538</v>
+        <v>1543107.82135</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2212373.32829</v>
+        <v>2216953.334890001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2737600.05312</v>
+        <v>2937857.26559</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3245812.93116</v>
+        <v>3589788.07201</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4874559.98458</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7024561.338740001</v>
+        <v>7052135.07909</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7060081.17723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7257182.34201</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9630122.039999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>289308.39602</v>
@@ -1001,31 +912,36 @@
         <v>759364.72289</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1252602.39559</v>
+        <v>1253352.51156</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1924036.65288</v>
+        <v>1927992.64613</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2420222.56714</v>
+        <v>2594234.0196</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2881240.46352</v>
+        <v>3214482.54316</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4055786.46968</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5898926.35276</v>
+        <v>5925473.836010001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5995186.367630001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6181197.438809999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8241061.343</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>24100.63107</v>
@@ -1034,7 +950,7 @@
         <v>37765.58883</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>72396.16968000001</v>
+        <v>72396.16967999999</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>107216.62854</v>
@@ -1043,31 +959,36 @@
         <v>271055.97065</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>272323.29077</v>
+        <v>272941.85583</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>289637.8624</v>
+        <v>315101.99751</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>335748.51281</v>
+        <v>344458.29824</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>769334.5490799999</v>
+        <v>769334.54908</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1041943.17343</v>
+        <v>1042915.9822</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>981833.5032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>992098.0624899999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1308188.699</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>4500.86187</v>
+        <v>4500.861869999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>5499.74443</v>
@@ -1076,34 +997,39 @@
         <v>10276.72492</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>8813.195740000001</v>
+        <v>8813.195739999999</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>18699.33914</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>16013.38464</v>
+        <v>16018.83293</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>27739.62358</v>
+        <v>28521.24848</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>28823.95483</v>
+        <v>30847.23061</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>49438.96582</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>83691.81255000002</v>
+        <v>83745.26088</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>83061.3064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>83886.84070999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>80871.99800000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2962.84723</v>
@@ -1112,37 +1038,42 @@
         <v>4098.37845</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5887.72194</v>
+        <v>5887.721939999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8187.539569999999</v>
+        <v>8187.53957</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>13607.89861</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24578.51089</v>
+        <v>24598.03591</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>60016.12151999999</v>
+        <v>60135.36702000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>26819.33839</v>
+        <v>72453.73139</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>121455.88659</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>213253.7405</v>
+        <v>213264.86068</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>174698.68224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>175781.61321</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>229964.46</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1020.90118</v>
@@ -1160,28 +1091,33 @@
         <v>5536.03926</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14230.24879</v>
+        <v>14249.53953</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>19804.98025</v>
+        <v>19920.62232</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20700.52552</v>
+        <v>22613.32991</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>45821.50312</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>61185.00332</v>
+        <v>61196.1235</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>83495.10378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>84383.57322999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>135659.762</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1788.09896</v>
@@ -1196,31 +1132,36 @@
         <v>4425.04026</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6728.97879</v>
+        <v>6728.978789999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>9330.062910000001</v>
+        <v>9330.297189999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>38284.63908</v>
+        <v>38287.6905</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3109.927279999999</v>
+        <v>46395.27909</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>68771.27525999999</v>
+        <v>68771.27526000001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>138626.99962</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>86830.53843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>87004.2629</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>82227.141</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>153.84709</v>
@@ -1241,64 +1182,74 @@
         <v>1018.19919</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1926.50219</v>
+        <v>1927.0542</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3008.88559</v>
+        <v>3445.12239</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6863.108209999999</v>
+        <v>6863.10821</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>13441.73756</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4373.04003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4393.77708</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>12077.557</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>314947.04173</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>392939.5599399999</v>
+        <v>392939.55994</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>619680.7004200001</v>
+        <v>619680.70042</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>867207.0076</v>
+        <v>867207.0075999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1528749.80677</v>
+        <v>1529499.92274</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2187794.8174</v>
+        <v>2192355.29898</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2677583.9316</v>
+        <v>2877721.89857</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3218993.59277</v>
+        <v>3517334.34062</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4753104.09799</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6811307.59824</v>
+        <v>6838870.21841</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6885382.49499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7081400.728800001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9400157.58</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>254629.27254</v>
@@ -1313,37 +1264,42 @@
         <v>702828.36648</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1215662.09917</v>
+        <v>1216166.95473</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1761567.41528</v>
+        <v>1765976.19729</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2110330.99506</v>
+        <v>2300317.41325</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2615832.69588</v>
+        <v>2815803.82651</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3782735.12658</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5444234.57961</v>
+        <v>5465894.476899999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5539837.541910001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5705000.44375</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7470841.002</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>50638.59236</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>69447.64401</v>
+        <v>69447.64400999999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>119462.28702</v>
@@ -1358,25 +1314,30 @@
         <v>346970.76644</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>443093.02553</v>
+        <v>445335.8383999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>519889.3404500001</v>
+        <v>522207.67633</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1008408.16351</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1488533.46814</v>
+        <v>1493702.33346</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1442303.56308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1511983.07735</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2008604.39</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>84161.08927</v>
@@ -1394,28 +1355,33 @@
         <v>509582.35616</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>725897.1930500001</v>
+        <v>728650.6677299999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1093693.88893</v>
+        <v>1101071.2616</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1148650.08317</v>
+        <v>1338522.15289</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1919904.09087</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2526005.04809</v>
+        <v>2539277.38542</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2554800.57845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2626187.67272</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3659551.654</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>119783.91653</v>
@@ -1430,31 +1396,36 @@
         <v>264798.98159</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>440888.9745700001</v>
+        <v>441393.83013</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>684573.62122</v>
+        <v>686228.92855</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>564942.99079</v>
+        <v>745309.2234400001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>941641.704</v>
+        <v>949380.21517</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>846340.60358</v>
+        <v>846340.6035799999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1415121.43936</v>
+        <v>1417769.34261</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1513739.4882</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1537734.02968</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1766058.05</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>45.67438</v>
@@ -1475,28 +1446,33 @@
         <v>4125.83457</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8601.089809999999</v>
+        <v>8601.089810000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5651.56826</v>
+        <v>5693.78212</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8082.26862</v>
+        <v>8082.268620000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>14574.62402</v>
+        <v>15145.41541</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>28993.91218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>29095.664</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>36626.908</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>60317.76919</v>
+        <v>60317.76918999999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>72330.49935</v>
@@ -1508,31 +1484,36 @@
         <v>164378.64112</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>313087.7076</v>
+        <v>313332.96801</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>426227.40212</v>
+        <v>426379.10169</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>567252.93654</v>
+        <v>577404.4853200001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>603160.89689</v>
+        <v>701530.51411</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>970368.97141</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1367073.01863</v>
+        <v>1372975.74151</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1345544.95308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1376400.28505</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1929316.578</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>36814.49866</v>
@@ -1541,37 +1522,42 @@
         <v>50554.90534</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>72644.28227</v>
+        <v>72644.28227000001</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>107046.47327</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>197786.51252</v>
+        <v>198072.63388</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>269916.9096599999</v>
+        <v>270109.62944</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>371402.73295</v>
+        <v>375398.40219</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>380882.16793</v>
+        <v>463856.59428</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>594302.76344</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>817229.7678499999</v>
+        <v>827072.7392300001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>938501.58491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>964581.8646500001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1082244.154</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>961.3228200000001</v>
@@ -1589,7 +1575,7 @@
         <v>4885.93575</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6147.5913</v>
+        <v>6147.591300000001</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>6682.15559</v>
@@ -1601,16 +1587,21 @@
         <v>10174.1214</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>15777.04515</v>
+        <v>15780.71279</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8943.27865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9609.412920000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8982.353999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>6180.43201</v>
@@ -1628,67 +1619,77 @@
         <v>54260.30153</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>71580.80542</v>
+        <v>71649.66159</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>114068.6292</v>
+        <v>114631.22161</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>88088.07975</v>
+        <v>154282.37185</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>190672.30227</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>267671.0212</v>
+        <v>267920.76427</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>290319.88547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>297117.5594</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>316541.31</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>29672.74383</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>40601.70414</v>
+        <v>40601.70413999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>55804.78772000001</v>
+        <v>55804.78772</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>83197.37408000001</v>
+        <v>83197.37407999998</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>138640.27524</v>
+        <v>138926.3966</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>192188.51294</v>
+        <v>192312.37655</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>250651.94816</v>
+        <v>254085.02499</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>286314.69319</v>
+        <v>303094.82744</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>393456.33977</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>533781.7015</v>
+        <v>543371.2621700001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>639238.42079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>657854.8923300001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>756720.49</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>23503.27053</v>
@@ -1700,40 +1701,45 @@
         <v>45320.00904</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>57332.16784999999</v>
+        <v>57332.16785</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>115301.19508</v>
+        <v>115260.33413</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>156310.49246</v>
+        <v>156269.47225</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>195850.20359</v>
+        <v>202006.08313</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>222278.72896</v>
+        <v>237673.91983</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>376066.20797</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>549843.25078</v>
+        <v>545903.00228</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>407043.36817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>411818.4204</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>847072.424</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6507.48417</v>
+        <v>6507.484169999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8295.811449999999</v>
+        <v>8295.811450000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>15254.18391</v>
@@ -1742,31 +1748,36 @@
         <v>13072.18461</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>58556.41742</v>
+        <v>58556.41742000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>59131.83164</v>
+        <v>59351.22904999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>97599.49606999999</v>
+        <v>103870.49206</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>85674.1635</v>
+        <v>110954.66434</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>238990.35256</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>967208.6150799999</v>
+        <v>970467.08202</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>460290.50397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>441905.43266</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>770618.585</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>57.87031</v>
@@ -1787,25 +1798,30 @@
         <v>14332.68123</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6658.35658</v>
+        <v>6658.356579999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>1000.00027</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6161.725100000001</v>
+        <v>6161.7251</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>3235.64932</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4921.06902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4921.069020000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3906.642</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,13 +1854,18 @@
         <v>0.0353</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>24635.47694</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>892.69497</v>
@@ -1865,25 +1886,30 @@
         <v>7051.45343</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7824.602460000001</v>
+        <v>10229.22619</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8994.86774</v>
+        <v>9553.95486</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>21450.41789</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>25508.2537</v>
+        <v>25612.90256</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>33351.84875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>34657.37094</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>27730.225</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>92.20654999999999</v>
@@ -1907,7 +1933,7 @@
         <v>494.77467</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4387.520689999999</v>
+        <v>4387.52069</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>2464.2982</v>
@@ -1916,16 +1942,21 @@
         <v>1716.53868</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2847.45151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2874.35571</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>9306.254000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>56.90252</v>
+        <v>56.90251999999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>250.3038</v>
@@ -1940,10 +1971,10 @@
         <v>627.3123999999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>258.5985</v>
+        <v>258.94149</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>978.17276</v>
+        <v>1044.30666</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>718.82404</v>
@@ -1955,19 +1986,24 @@
         <v>1433.9964</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4234.20358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4281.57838</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11514.623</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>55.52839</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>48.96510000000001</v>
+        <v>48.9651</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>23.16514</v>
@@ -1982,7 +2018,7 @@
         <v>274.74823</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>278.8259399999999</v>
+        <v>278.82594</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>356.04577</v>
@@ -1991,16 +2027,21 @@
         <v>563.44398</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>658.38873</v>
+        <v>658.77574</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4346.494650000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4347.5503</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1354.705</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4647.80556</v>
@@ -2018,28 +2059,33 @@
         <v>41336.0949</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29778.3434</v>
+        <v>29986.7919</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>78629.15758</v>
+        <v>82411.23176</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>69110.96923999999</v>
+        <v>89589.49184</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>193307.78894</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>908023.58322</v>
+        <v>911134.84386</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>313377.01544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>317924.5921599999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>674917.105</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>33.32073</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0.27434</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1566.46</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.32105</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>96.273</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>668.8340900000001</v>
+        <v>668.8340899999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>965.9585299999999</v>
+        <v>965.95853</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>429.79128</v>
@@ -2135,34 +2191,39 @@
         <v>9155.29718</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6571.046760000001</v>
+        <v>6581.65268</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2672.83941</v>
+        <v>2691.00359</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1104.39138</v>
+        <v>5347.2825</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>12716.10905</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>26621.02841</v>
+        <v>26663.19884</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>72576.66974000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72898.64181</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>40226.298</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>7054.316080000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6264.301630000001</v>
+        <v>6264.30163</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>11488.21761</v>
@@ -2171,31 +2232,36 @@
         <v>11484.50256</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>46176.70131</v>
+        <v>46195.63933</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>39039.13089</v>
+        <v>39731.29196</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>90422.50405</v>
+        <v>94491.52051000002</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>92840.15355000002</v>
+        <v>106547.44866</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>200493.58497</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>944245.23985</v>
+        <v>946663.32784</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>333878.53937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>339123.85038</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>712797.588</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>90.18619</v>
@@ -2225,16 +2291,21 @@
         <v>4094.59903</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7084.95011</v>
+        <v>7087.83807</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3580.16322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3723.75486</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3070.785</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1661.07853</v>
@@ -2249,16 +2320,16 @@
         <v>1724.72923</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3059.3575</v>
+        <v>3078.29552</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4580.654970000001</v>
+        <v>5213.30196</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4751.422640000001</v>
+        <v>4839.550639999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6466.91386</v>
+        <v>6790.766079999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>6008.4942</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>25296.62153</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>16001.238</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2300,7 +2376,7 @@
         <v>75.14182000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>965.1543500000001</v>
+        <v>965.15435</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>41.31119</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>10.29933</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>355.978</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5108.28663</v>
+        <v>5108.286630000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>5492.55214</v>
@@ -2330,28 +2411,33 @@
         <v>39276.55475</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>31219.25292</v>
+        <v>31278.74403</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>81234.72102</v>
+        <v>85215.50413</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>81183.21883</v>
+        <v>94561.49332999998</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>187097.92599</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>897790.17756</v>
+        <v>900205.23088</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>298887.70628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>303933.88221</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>683578.829</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,7 +2455,7 @@
         <v>40.69351</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>95.48293</v>
+        <v>95.48293000000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4.26343</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>162.299</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.797</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>194.76473</v>
@@ -2438,7 +2534,7 @@
         <v>81.4229</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>387.24115</v>
+        <v>387.2411499999999</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>230.78221</v>
@@ -2447,28 +2543,33 @@
         <v>3278.60964</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1817.40536</v>
+        <v>1817.42833</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1371.51742</v>
+        <v>1371.62277</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>817.8774599999999</v>
+        <v>823.0458500000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2321.12097</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5214.938819999999</v>
+        <v>5215.085529999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6099.48558</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6155.02902</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9625.662</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1374.75135</v>
@@ -2477,37 +2578,42 @@
         <v>1859.43784</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4968.98644</v>
+        <v>4968.986440000001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>10454.33752</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17145.05781</v>
+        <v>17145.06181</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>18937.74236</v>
+        <v>18966.17077</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>31971.77325</v>
+        <v>32100.15275</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>36936.09288</v>
+        <v>40229.94891</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>60140.42024</v>
+        <v>60140.42023999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>108908.39334</v>
+        <v>109163.76279</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>108965.25525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>111911.68501</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>106232.812</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1363.29857</v>
@@ -2522,31 +2628,36 @@
         <v>10323.16824</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16907.45843</v>
+        <v>16907.46243</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>18482.45312</v>
+        <v>18510.88153</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30745.33742</v>
+        <v>30873.71692</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>36082.30364</v>
+        <v>39376.15967</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>58014.47461</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>105276.55656</v>
+        <v>105531.92601</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>105422.98627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>108381.36853</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>103196.67</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11.45278</v>
@@ -2579,13 +2690,18 @@
         <v>3631.83678</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3542.26898</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3530.31648</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3036.142</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>21581.68727</v>
@@ -2597,34 +2713,39 @@
         <v>44116.9889</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>48465.51237999999</v>
+        <v>48465.51238</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>110535.85338</v>
+        <v>110476.05041</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>157465.45085</v>
+        <v>156923.23857</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>171055.42236</v>
+        <v>179284.90193</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>178176.64603</v>
+        <v>201851.1866</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>354422.55532</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>463898.23267</v>
+        <v>460542.9936699999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>424490.07752</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>402688.31767</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>798660.6090000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1539.56456</v>
@@ -2639,31 +2760,36 @@
         <v>4432.85287</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9644.89279</v>
+        <v>9654.65532</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>12230.03901</v>
+        <v>12231.7938</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>19061.69676</v>
+        <v>23958.00853</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>28482.62497</v>
+        <v>29108.10290000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>29009.35989</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>40207.98123</v>
+        <v>40593.38755</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>42464.52822</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>43532.76017</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>92063.31600000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>167.27815</v>
@@ -2696,13 +2822,18 @@
         <v>357.80946</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1408.6405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1411.09929</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6242.339</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1372.28641</v>
@@ -2714,34 +2845,39 @@
         <v>2103.96136</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4426.246139999999</v>
+        <v>4426.24614</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9597.10909</v>
+        <v>9606.87162</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11585.80096</v>
+        <v>11587.55575</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>18808.84468</v>
+        <v>23705.15645</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>27091.40163</v>
+        <v>27716.87956</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>28595.90868</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>39850.17176999999</v>
+        <v>40235.57809</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>41055.88772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>42121.66088</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>85820.977</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1903.71833</v>
@@ -2756,31 +2892,36 @@
         <v>4088.65565</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7260.87185</v>
+        <v>7269.00012</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>28712.49754</v>
+        <v>28721.87014</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>11616.89443</v>
+        <v>13583.61213</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>58631.95024000001</v>
+        <v>59071.71314</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>18985.48624</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>99296.27127</v>
+        <v>99857.53754</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>36345.65712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>37321.02414</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>75533.55899999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>257.79084</v>
@@ -2801,7 +2942,7 @@
         <v>82.73407</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>451.78745</v>
+        <v>451.78746</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>91.17929999999998</v>
@@ -2810,16 +2951,21 @@
         <v>172.91988</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>534.9722999999999</v>
+        <v>535.29499</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1927.85224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1934.99534</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9571.690000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>607.66512</v>
@@ -2834,7 +2980,7 @@
         <v>246.09973</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>759.0631299999999</v>
+        <v>759.06313</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>380.16617</v>
@@ -2849,16 +2995,21 @@
         <v>3497.64663</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>13362.5168</v>
+        <v>13362.52123</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3093.73962</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3113.1792</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9266.098</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1038.26237</v>
@@ -2873,31 +3024,36 @@
         <v>3589.28857</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6455.808660000001</v>
+        <v>6463.93693</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>28249.5973</v>
+        <v>28258.9699</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10849.29406</v>
+        <v>12816.01175</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55259.12155</v>
+        <v>55698.88445</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>15314.91973</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>85398.78217000001</v>
+        <v>85959.72132000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>31324.06526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>32272.8496</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>56695.771</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>21217.5335</v>
@@ -2909,37 +3065,42 @@
         <v>16566.67545</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>48809.7096</v>
+        <v>48809.70959999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>112919.87432</v>
+        <v>112861.70561</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>140982.99232</v>
+        <v>140433.16223</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>178500.22469</v>
+        <v>189659.29833</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>148027.32076</v>
+        <v>171887.57636</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>364446.42897</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>404809.94263</v>
+        <v>401278.84368</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>430608.94862</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>408900.0537</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>815190.366</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4271.871389999999</v>
+        <v>4271.87139</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>4095.47034</v>
@@ -2957,25 +3118,30 @@
         <v>26933.61625</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>37164.14736</v>
+        <v>38449.6542</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>39283.08820999999</v>
+        <v>44195.09311</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>62224.98929999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>98167.516</v>
+        <v>98625.92666</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>88356.57109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>89852.15183</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>158208.344</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>16945.66211</v>
@@ -2984,34 +3150,37 @@
         <v>14954.6038</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>7481.352280000001</v>
+        <v>7481.35228</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>38696.07375</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>91465.03199</v>
+        <v>91406.86328000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>114049.37607</v>
+        <v>113499.54598</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>141336.07733</v>
+        <v>151209.64413</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>108744.23255</v>
+        <v>127692.48325</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>302221.43967</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>306642.42663</v>
+        <v>302652.91702</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>342252.37753</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>319047.90187</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>656982.022</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>225</v>
@@ -3044,28 +3216,31 @@
         <v>574</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1545</v>
+        <v>1560</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1693</v>
+        <v>1706</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1938</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1998</v>
+        <v>2224</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2467</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>